--- a/biology/Médecine/Max_Jacobson/Max_Jacobson.xlsx
+++ b/biology/Médecine/Max_Jacobson/Max_Jacobson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max Jacobson (1900-1979) est un médecin et chercheur allemand, qui a traité de nombreux patients aux États-Unis, en particulier le président John Fitzgerald Kennedy, dont il a été le médecin personnel[1]. Il a été surnommé « Miracle Max » ou « Dr. Feelgood », parce qu'il administrait entre autres des amphétamines à ses patients[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Jacobson (1900-1979) est un médecin et chercheur allemand, qui a traité de nombreux patients aux États-Unis, en particulier le président John Fitzgerald Kennedy, dont il a été le médecin personnel. Il a été surnommé « Miracle Max » ou « Dr. Feelgood », parce qu'il administrait entre autres des amphétamines à ses patients.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Fordon, en province de Posnanie le 3 juillet 1900, il ouvre un cabinet à Berlin, puis émigre aux États-Unis en 1936[3] à la suite de l'arrivée de Hitler au pouvoir, en 1933. Il s'installe à New York où il devient le médecin de personnalités telles que des sportifs, acteurs ou politiciens. Il injecte lui-même ses propres préparations à ses patients[4]. Il voit défiler chez lui de nombreuses personnalités du spectacle et de la politique[5]. Il a été médecin non officiel du président Kennedy[6]. Il a également traité Jackie Kennedy[7].
-Il a été révoqué en tant que médecin en avril 1975[8] pour avoir administré des amphétamines sans justification médicale[9]. Les règles concernant le contrôle médical aux États-Unis venaient d'être revues, avec en particulier la création de la Drug Enforcement Administration, agence chargée de lutter contre le trafic et la distribution de drogues aux États-Unis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Fordon, en province de Posnanie le 3 juillet 1900, il ouvre un cabinet à Berlin, puis émigre aux États-Unis en 1936 à la suite de l'arrivée de Hitler au pouvoir, en 1933. Il s'installe à New York où il devient le médecin de personnalités telles que des sportifs, acteurs ou politiciens. Il injecte lui-même ses propres préparations à ses patients. Il voit défiler chez lui de nombreuses personnalités du spectacle et de la politique. Il a été médecin non officiel du président Kennedy. Il a également traité Jackie Kennedy.
+Il a été révoqué en tant que médecin en avril 1975 pour avoir administré des amphétamines sans justification médicale. Les règles concernant le contrôle médical aux États-Unis venaient d'être revues, avec en particulier la création de la Drug Enforcement Administration, agence chargée de lutter contre le trafic et la distribution de drogues aux États-Unis.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2019 : A droite sur la photo, documentaire de Christian Huleu, portrait de Max Jacobson  (52 minutes).</t>
         </is>
